--- a/Regresion/ventascorrelacion.xlsx
+++ b/Regresion/ventascorrelacion.xlsx
@@ -14,222 +14,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>orders_x</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>salesUsd</t>
+  </si>
+  <si>
+    <t>salesMl</t>
+  </si>
+  <si>
+    <t>usersThatClicked</t>
+  </si>
+  <si>
+    <t>clicks</t>
+  </si>
+  <si>
+    <t>coverageOrders</t>
+  </si>
+  <si>
+    <t>coverageUsers</t>
+  </si>
+  <si>
+    <t>retentionRate</t>
+  </si>
+  <si>
     <t>campaignDays</t>
   </si>
   <si>
+    <t>mean_score_review_raw</t>
+  </si>
+  <si>
+    <t>buy_back_ratio</t>
+  </si>
+  <si>
+    <t>mean_score_review</t>
+  </si>
+  <si>
+    <t>buy_back_percent</t>
+  </si>
+  <si>
+    <t>is_zombie</t>
+  </si>
+  <si>
+    <t>cooking_time</t>
+  </si>
+  <si>
+    <t>cooking_time_raw</t>
+  </si>
+  <si>
+    <t>complete_delivery_time_raw</t>
+  </si>
+  <si>
+    <t>complete_delivery_time</t>
+  </si>
+  <si>
+    <t>is_in_warning</t>
+  </si>
+  <si>
+    <t>availability_prop_raw</t>
+  </si>
+  <si>
+    <t>availability_percent_raw</t>
+  </si>
+  <si>
+    <t>availability_percent</t>
+  </si>
+  <si>
+    <t>index_position</t>
+  </si>
+  <si>
+    <t>courier_waiting_sum_raw</t>
+  </si>
+  <si>
+    <t>userPenetration</t>
+  </si>
+  <si>
+    <t>cancelled_ratio_raw</t>
+  </si>
+  <si>
+    <t>on_time_ratio_percent</t>
+  </si>
+  <si>
+    <t>on_time_ratio_raw</t>
+  </si>
+  <si>
+    <t>buy_back_clients</t>
+  </si>
+  <si>
+    <t>cancelled_percent</t>
+  </si>
+  <si>
+    <t>is_regular</t>
+  </si>
+  <si>
+    <t>cancelled_num_raw</t>
+  </si>
+  <si>
+    <t>sum_score_review_raw</t>
+  </si>
+  <si>
+    <t>ticket_amount</t>
+  </si>
+  <si>
+    <t>courier_not_wait_sum_raw</t>
+  </si>
+  <si>
+    <t>num_review</t>
+  </si>
+  <si>
+    <t>perfomance</t>
+  </si>
+  <si>
+    <t>orders_total_with_courier_info_raw</t>
+  </si>
+  <si>
+    <t>orders_with_delivery_info</t>
+  </si>
+  <si>
+    <t>orders_y</t>
+  </si>
+  <si>
+    <t>total_users</t>
+  </si>
+  <si>
+    <t>ordersShare</t>
+  </si>
+  <si>
+    <t>orders_total_from_header_raw</t>
+  </si>
+  <si>
     <t>clickPenetration</t>
   </si>
   <si>
-    <t>clicks</t>
-  </si>
-  <si>
-    <t>salesMl</t>
-  </si>
-  <si>
-    <t>complete_delivery_time_raw</t>
-  </si>
-  <si>
-    <t>buy_back_clients</t>
-  </si>
-  <si>
-    <t>courier_not_wait_sum_raw</t>
-  </si>
-  <si>
-    <t>on_time_ratio_percent</t>
-  </si>
-  <si>
-    <t>userPenetration</t>
-  </si>
-  <si>
-    <t>salesUsd</t>
-  </si>
-  <si>
-    <t>cooking_time_raw</t>
-  </si>
-  <si>
-    <t>index_paid</t>
-  </si>
-  <si>
-    <t>cooking_time</t>
-  </si>
-  <si>
-    <t>buy_back_ratio</t>
-  </si>
-  <si>
-    <t>buy_back_percent</t>
-  </si>
-  <si>
-    <t>has_saturation_distance</t>
-  </si>
-  <si>
-    <t>complete_delivery_time</t>
-  </si>
-  <si>
-    <t>brand_id</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>on_time_ratio_raw</t>
-  </si>
-  <si>
-    <t>ordersShare</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
-  <si>
-    <t>usersThatClicked</t>
-  </si>
-  <si>
-    <t>delivery_price</t>
-  </si>
-  <si>
-    <t>branch_id</t>
-  </si>
-  <si>
-    <t>app_store_id</t>
-  </si>
-  <si>
-    <t>ticket_amount</t>
-  </si>
-  <si>
-    <t>operator_id</t>
-  </si>
-  <si>
-    <t>query_lat</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>store_distance</t>
-  </si>
-  <si>
-    <t>perfomance</t>
-  </si>
-  <si>
-    <t>orders_with_delivery_info</t>
-  </si>
-  <si>
-    <t>availability_percent_raw</t>
-  </si>
-  <si>
-    <t>availability_percent</t>
-  </si>
-  <si>
-    <t>saturation_distance</t>
-  </si>
-  <si>
-    <t>availability_prop_raw</t>
-  </si>
-  <si>
-    <t>sum_score_review_raw</t>
-  </si>
-  <si>
-    <t>day_y</t>
-  </si>
-  <si>
-    <t>retentionRate</t>
-  </si>
-  <si>
-    <t>is_available</t>
-  </si>
-  <si>
-    <t>cancelled_ratio_raw</t>
-  </si>
-  <si>
-    <t>mean_score_review</t>
-  </si>
-  <si>
-    <t>orders_total_from_header_raw</t>
-  </si>
-  <si>
-    <t>index_position</t>
-  </si>
-  <si>
-    <t>cancelled_num_raw</t>
-  </si>
-  <si>
-    <t>mean_score_review_raw</t>
-  </si>
-  <si>
-    <t>courier_waiting_sum_raw</t>
-  </si>
-  <si>
-    <t>is_own</t>
-  </si>
-  <si>
-    <t>cancelled_percent</t>
-  </si>
-  <si>
-    <t>orders_y</t>
-  </si>
-  <si>
-    <t>coverageUsers</t>
-  </si>
-  <si>
-    <t>num_review</t>
-  </si>
-  <si>
-    <t>total_users</t>
-  </si>
-  <si>
-    <t>coverageOrders</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>query_lng</t>
-  </si>
-  <si>
-    <t>lng</t>
+    <t>storeId</t>
   </si>
   <si>
     <t>adDays</t>
   </si>
   <si>
-    <t>storeId</t>
-  </si>
-  <si>
-    <t>orders_total_with_courier_info_raw</t>
-  </si>
-  <si>
-    <t>is_zombie</t>
-  </si>
-  <si>
-    <t>is_regular</t>
-  </si>
-  <si>
-    <t>day_x</t>
-  </si>
-  <si>
-    <t>is_in_warning</t>
+    <t>day</t>
   </si>
   <si>
     <t>inactive</t>
-  </si>
-  <si>
-    <t>has_delivery_price</t>
-  </si>
-  <si>
-    <t>has_saturation_cooking_time</t>
-  </si>
-  <si>
-    <t>saturation_cooking_time</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
 </sst>
 </file>
@@ -587,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +531,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -608,74 +539,74 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9934372107698957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9583068237413179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9583068237298416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8825959892123953</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8087307583212092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.7625189521252512</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.7548753760592188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.5253538808570104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.1064505790489982</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -683,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999999</v>
+        <v>0.05388871584367273</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -691,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999999</v>
+        <v>0.0429213538856149</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -699,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9999999999999999</v>
+        <v>0.03965708549367708</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -707,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9999999999999999</v>
+        <v>0.03886146043256496</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -715,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9999999999999999</v>
+        <v>0.03687556228159837</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -723,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999999999999999</v>
+        <v>0.03524719558237608</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -731,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999999999999998</v>
+        <v>0.03274647669282132</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -739,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9999999999999998</v>
+        <v>0.02296602635462727</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -747,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999999999999998</v>
+        <v>0.01986060652913554</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -755,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9999999999999998</v>
+        <v>0.01586871539985177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -763,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999999999999998</v>
+        <v>0.00314767590045961</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -771,7 +702,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9999999999999998</v>
+        <v>0.003147675900458805</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -779,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9999999999999998</v>
+        <v>5.721567931630804E-16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -787,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9999999999999997</v>
+        <v>-0.007449796711461367</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -795,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9999999999999997</v>
+        <v>-0.01996404759435006</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -803,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9999999999999997</v>
+        <v>-0.02518085160323575</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -811,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9999999999999997</v>
+        <v>-0.03048070160953781</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -819,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9999999999999997</v>
+        <v>-0.03503694732476467</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -827,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9999999999999996</v>
+        <v>-0.03503700138356886</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -835,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9999999999999988</v>
+        <v>-0.03580826796005313</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -843,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9999999998990777</v>
+        <v>-0.03787483483404269</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -851,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.9999999999991914</v>
+        <v>-0.0458090355389895</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -859,7 +790,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.9999999999999984</v>
+        <v>-0.04742126726346341</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -867,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.9999999999999986</v>
+        <v>-0.06786081660770088</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -875,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.9999999999999987</v>
+        <v>-0.06909556807103803</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -883,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.9999999999999993</v>
+        <v>-0.07097319046598648</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -891,7 +822,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.9999999999999993</v>
+        <v>-0.07156628521708887</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -899,7 +830,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.9999999999999994</v>
+        <v>-0.07266697776442455</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -907,7 +838,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.9999999999999997</v>
+        <v>-0.07665262362323429</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -915,7 +846,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9999999999999997</v>
+        <v>-0.07747454665858118</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -923,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.9999999999999997</v>
+        <v>-0.07780629685000053</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -931,7 +862,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.9999999999999998</v>
+        <v>-0.07789822936674178</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -939,7 +870,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.9999999999999998</v>
+        <v>-0.07827887151647644</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -947,7 +878,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9999999999999998</v>
+        <v>-0.07888627665540481</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -955,7 +886,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.9999999999999998</v>
+        <v>-0.2537618533236309</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -963,179 +894,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.9999999999999998</v>
+        <v>-0.6363266130131281</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B50">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>-0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>-1.000000000000014</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>-1.000000000000262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>-1.000000000000842</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
